--- a/RawData/cropdata_master.xlsx
+++ b/RawData/cropdata_master.xlsx
@@ -6068,4 +6068,248 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="af3cd4e38eab4ac2fa97473cd31e4822">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa13b4ea85a0338065f13f7b4bcf2fc3" ns2:_="" ns3:_="">
+    <xsd:import namespace="d795cf93-200f-4322-ae4e-3af3c2bc7b07"/>
+    <xsd:import namespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d795cf93-200f-4322-ae4e-3af3c2bc7b07" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD23439-E57D-4BFB-AF8C-835490ACCB95}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99EE9F6E-9B67-4397-B41A-5C4C0B44707F}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDACA9F8-800C-4A3A-A834-3E57DEEE7946}"/>
 </file>
--- a/RawData/cropdata_master.xlsx
+++ b/RawData/cropdata_master.xlsx
@@ -6071,8 +6071,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="af3cd4e38eab4ac2fa97473cd31e4822">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa13b4ea85a0338065f13f7b4bcf2fc3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="04f0adbf5da449b72a87907c36bfe402">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5e4044cd58a51a52832fd40a04c970f" ns2:_="" ns3:_="">
     <xsd:import namespace="d795cf93-200f-4322-ae4e-3af3c2bc7b07"/>
     <xsd:import namespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59"/>
     <xsd:element name="properties">
@@ -6093,6 +6093,8 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6157,6 +6159,13 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="28b28469-8996-4088-bd89-44d87d6385e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6186,6 +6195,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{68644ca3-003b-4e0e-bb82-ecd3a2033107}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -6298,12 +6318,17 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d795cf93-200f-4322-ae4e-3af3c2bc7b07">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD23439-E57D-4BFB-AF8C-835490ACCB95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDF2E90-AF0A-4E74-B90D-E956B7B32D6D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/RawData/cropdata_master.xlsx
+++ b/RawData/cropdata_master.xlsx
@@ -6071,8 +6071,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="af3cd4e38eab4ac2fa97473cd31e4822">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa13b4ea85a0338065f13f7b4bcf2fc3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="04f0adbf5da449b72a87907c36bfe402">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5e4044cd58a51a52832fd40a04c970f" ns2:_="" ns3:_="">
     <xsd:import namespace="d795cf93-200f-4322-ae4e-3af3c2bc7b07"/>
     <xsd:import namespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59"/>
     <xsd:element name="properties">
@@ -6093,6 +6093,8 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6157,6 +6159,13 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="28b28469-8996-4088-bd89-44d87d6385e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6186,6 +6195,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{68644ca3-003b-4e0e-bb82-ecd3a2033107}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -6298,12 +6318,17 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d795cf93-200f-4322-ae4e-3af3c2bc7b07">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD23439-E57D-4BFB-AF8C-835490ACCB95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8B3435B-7CC6-4E45-8B00-E04869FBC157}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/RawData/cropdata_master.xlsx
+++ b/RawData/cropdata_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malgren/Documents/Mines/N_P/NANI_NAPI/CSNAPNIv1/RawData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365.sharepoint.com/sites/CostelloLab/Shared Documents/CSNAPNI/CSNAPNI/CBW-CSNAPNI/CB_CSNAPNI/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA40C4F-5242-9445-9BAC-036BFAC8379D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{7CA40C4F-5242-9445-9BAC-036BFAC8379D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C66077FA-E49C-4357-8CDF-76A00B23DEA5}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="680" windowWidth="33600" windowHeight="19700" activeTab="3" xr2:uid="{3F1BC08B-9A45-1844-AD4F-708445EA80F5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3F1BC08B-9A45-1844-AD4F-708445EA80F5}"/>
   </bookViews>
   <sheets>
     <sheet name="cropdata_master" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="cropdata" localSheetId="3">cropdata!$A$1:$R$19</definedName>
-    <definedName name="cropdata" localSheetId="0">cropdata_master!$B$3:$S$21</definedName>
+    <definedName name="cropdata" localSheetId="0">cropdata_master!$B$3:$S$22</definedName>
     <definedName name="cropdata_1" localSheetId="3">cropdata!$A$1:$R$19</definedName>
     <definedName name="cropdata_key" localSheetId="2">cropdata_key!$A$1:$R$20</definedName>
   </definedNames>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>corn for grain</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>P content / kg</t>
+  </si>
+  <si>
+    <t>grass</t>
   </si>
 </sst>
 </file>
@@ -487,10 +490,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>cropdata_master!$D$3:$D$21</c:f>
+              <c:f>cropdata_master!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>3.1700000000000001E-3</c:v>
                 </c:pt>
@@ -540,12 +543,15 @@
                   <c:v>3.4999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1.2E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>6.3E-3</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -2366,13 +2372,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2755,13 +2761,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E064018E-7997-DE4B-A1B3-2FFB85EE4AD0}">
-  <dimension ref="A2:S48"/>
+  <dimension ref="A2:S49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:S21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -2782,7 +2788,7 @@
     <col min="19" max="19" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>29</v>
       </c>
@@ -2838,7 +2844,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2897,7 +2903,7 @@
         <v>1.4603999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2956,7 +2962,7 @@
         <v>0.32768999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>5.9404000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3074,7 +3080,7 @@
         <v>12.705</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3133,7 +3139,7 @@
         <v>4.3407999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3192,7 +3198,7 @@
         <v>4.5965999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3251,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3310,7 +3316,7 @@
         <v>0.25731999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3369,7 +3375,7 @@
         <v>29.815999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3428,7 +3434,7 @@
         <v>1.4938</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3487,7 +3493,7 @@
         <v>2.1964000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3546,7 +3552,7 @@
         <v>4.0646000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3605,7 +3611,7 @@
         <v>8.9337999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3664,7 +3670,7 @@
         <v>17.864999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3723,7 +3729,7 @@
         <v>1.3791</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3782,77 +3788,77 @@
         <v>0.28021000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>16</v>
-      </c>
-      <c r="B19" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3.6600000000000001E-2</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1.2E-2</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I19" s="4">
-        <v>3000</v>
-      </c>
-      <c r="J19" s="4">
-        <v>210</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-      <c r="L19" s="8">
-        <v>1</v>
-      </c>
-      <c r="M19" s="8">
-        <v>1</v>
-      </c>
-      <c r="N19" s="8">
-        <v>1</v>
-      </c>
-      <c r="O19" s="8">
-        <v>0.21640000000000001</v>
-      </c>
-      <c r="P19" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>0.20985999999999999</v>
-      </c>
-      <c r="R19" s="8">
-        <v>0</v>
-      </c>
-      <c r="S19" s="8">
-        <v>1.4603999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>17</v>
       </c>
       <c r="B20" s="8">
         <v>0.9</v>
       </c>
       <c r="C20" s="2">
-        <v>0.1045</v>
+        <v>3.6600000000000001E-2</v>
       </c>
       <c r="D20" s="4">
-        <v>6.3E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
@@ -3870,7 +3876,7 @@
         <v>3000</v>
       </c>
       <c r="J20" s="4">
-        <v>600</v>
+        <v>210</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -3900,18 +3906,18 @@
         <v>1.4603999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="8">
         <v>0.9</v>
       </c>
       <c r="C21" s="2">
-        <v>4.7735E-2</v>
+        <v>0.1045</v>
       </c>
       <c r="D21" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="E21" s="8">
         <v>0</v>
@@ -3929,7 +3935,7 @@
         <v>3000</v>
       </c>
       <c r="J21" s="4">
-        <v>274</v>
+        <v>600</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -3959,473 +3965,532 @@
         <v>1.4603999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C22" s="4" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4.7735E-2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>3000</v>
+      </c>
+      <c r="J22" s="4">
+        <v>274</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8">
+        <v>1</v>
+      </c>
+      <c r="N22" s="8">
+        <v>1</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0.20985999999999999</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0</v>
+      </c>
+      <c r="S22" s="8">
+        <v>1.4603999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="L27" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="E27" s="7"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
+    <row r="28" spans="1:19" ht="20" x14ac:dyDescent="0.4">
+      <c r="E28" s="7"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
         <v>46</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>47</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" t="str">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
         <f>A3</f>
         <v>corn for grain</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <f>C3*B3</f>
         <v>1.2137999999999999E-2</v>
       </c>
-      <c r="D30">
-        <f>$B$48/B30</f>
+      <c r="D31">
+        <f>$B$49/B31</f>
         <v>3.5394216510133467</v>
       </c>
-      <c r="E30">
-        <f>$B$47/B30</f>
+      <c r="E31">
+        <f>$B$48/B31</f>
         <v>7.7483934750370738</v>
       </c>
-      <c r="F30">
-        <f>$B$46/B30</f>
+      <c r="F31">
+        <f>$B$47/B31</f>
         <v>2.7137913989125066</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" t="str">
-        <f t="shared" ref="A31:A48" si="0">A4</f>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <f>A4</f>
         <v>corn for silage</v>
       </c>
-      <c r="B31">
-        <f t="shared" ref="B31:B47" si="1">C4*B4</f>
+      <c r="B32">
+        <f>C4*B4</f>
         <v>3.5443199999999997E-3</v>
       </c>
-      <c r="D31">
-        <f t="shared" ref="D31:D48" si="2">$B$48/B31</f>
+      <c r="D32">
+        <f t="shared" ref="D32:D49" si="0">$B$49/B32</f>
         <v>12.121224945828819</v>
       </c>
-      <c r="E31">
-        <f t="shared" ref="E31:E48" si="3">$B$47/B31</f>
+      <c r="E32">
+        <f t="shared" ref="E32:E49" si="1">$B$48/B32</f>
         <v>26.53541440953413</v>
       </c>
-      <c r="F31">
-        <f t="shared" ref="F31:F48" si="4">$B$46/B31</f>
+      <c r="F32">
+        <f t="shared" ref="F32:F49" si="2">$B$47/B32</f>
         <v>9.293743228602386</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" t="str">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
+        <f>A5</f>
+        <v>wheat</v>
+      </c>
+      <c r="B33">
+        <f>C5*B5</f>
+        <v>1.90498113E-2</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="0"/>
-        <v>wheat</v>
-      </c>
-      <c r="B32">
+        <v>2.2552191894940186</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="1"/>
-        <v>1.90498113E-2</v>
-      </c>
-      <c r="D32">
+        <v>4.9370567780899748</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="2"/>
-        <v>2.2552191894940186</v>
-      </c>
-      <c r="E32">
+        <v>1.7291509863932355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
+        <f>A6</f>
+        <v>oats</v>
+      </c>
+      <c r="B34">
+        <f>C6*B6</f>
+        <v>1.8315264000000001E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>2.3456664342921836</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>5.1350611162361615</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>1.7984998742032876</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="str">
+        <f>A7</f>
+        <v>barley</v>
+      </c>
+      <c r="B35">
+        <f>C7*B7</f>
+        <v>1.876512E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>2.2894338005832098</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>5.0119583567810917</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>1.7553844579730908</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
+        <f>A8</f>
+        <v>sorghum for grain</v>
+      </c>
+      <c r="B36">
+        <f>C8*B8</f>
+        <v>1.7518357499999998E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>2.4523703206764678</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>5.3686539962436548</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>1.8803132656700268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
+        <f>A9</f>
+        <v>sorghum for silage</v>
+      </c>
+      <c r="B37">
+        <f>C9*B9</f>
+        <v>7.3775999999999998E-3</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>5.8232351984385167</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>12.748048145738451</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>4.4648666232921279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <f>A10</f>
+        <v>potatoes</v>
+      </c>
+      <c r="B38">
+        <f>C10*B10</f>
+        <v>3.5662275000000001E-3</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>12.046763701979192</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>26.372406135054476</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>9.2366513353396567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f>A11</f>
+        <v>rye</v>
+      </c>
+      <c r="B39">
+        <f>C11*B11</f>
+        <v>1.908924E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>2.2505610490517172</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>4.9268593197005224</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>1.7255794363735804</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f>A12</f>
+        <v>alfalfa hay</v>
+      </c>
+      <c r="B40">
+        <f>C12*B12</f>
+        <v>2.5198615000000001E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>1.7049151312482849</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>3.7323479881731592</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>1.3072147020778722</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <f>A13</f>
+        <v>other hay</v>
+      </c>
+      <c r="B41">
+        <f>C13*B13</f>
+        <v>1.0978108889999999E-2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>3.9133789280532452</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>8.5670492925854003</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>3.0005167857284758</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
+        <f>A14</f>
+        <v>soybeans</v>
+      </c>
+      <c r="B42">
+        <f>C14*B14</f>
+        <v>5.9190762500000008E-2</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.72581426873830179</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>1.5889303673018231</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>0.55650575543776781</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <f>A15</f>
+        <v>cropland pasture</v>
+      </c>
+      <c r="B43">
+        <f>C15*B15</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>1.7184599999999999</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>3.7619999999999996</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>1.3176000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <f>A16</f>
+        <v>noncropland pasture</v>
+      </c>
+      <c r="B44">
+        <f>C16*B16</f>
+        <v>0.02</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>2.148075</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>4.7024999999999997</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>1.6470000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
+        <f>A17</f>
+        <v>rice</v>
+      </c>
+      <c r="B45">
+        <f>C17*B17</f>
+        <v>1.25117475E-2</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>3.4336930153042169</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>7.5169355839382144</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>2.6327257643266861</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <f>A18</f>
+        <v>peanuts</v>
+      </c>
+      <c r="B46">
+        <f>C18*B18</f>
+        <v>4.0311843E-2</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>1.0657289968111852</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>2.3330612792870817</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>0.8171295963818872</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <f t="shared" ref="A47:A49" si="3">A20</f>
+        <v>CGF</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47:B48" si="4">C20*B20</f>
+        <v>3.2940000000000004E-2</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>1.3042349726775955</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>2.8551912568306004</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
         <f t="shared" si="3"/>
-        <v>4.9370567780899748</v>
-      </c>
-      <c r="F32">
+        <v>CGM</v>
+      </c>
+      <c r="B48">
         <f t="shared" si="4"/>
-        <v>1.7291509863932355</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="str">
+        <v>9.4049999999999995E-2</v>
+      </c>
+      <c r="D48">
         <f t="shared" si="0"/>
-        <v>oats</v>
-      </c>
-      <c r="B33">
+        <v>0.45679425837320575</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="1"/>
-        <v>1.8315264000000001E-2</v>
-      </c>
-      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="2"/>
-        <v>2.3456664342921836</v>
-      </c>
-      <c r="E33">
+        <v>0.35023923444976085</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
         <f t="shared" si="3"/>
-        <v>5.1350611162361615</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="4"/>
-        <v>1.7984998742032876</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="str">
+        <v>DGS</v>
+      </c>
+      <c r="B49">
+        <f>C22*B22</f>
+        <v>4.29615E-2</v>
+      </c>
+      <c r="D49">
         <f t="shared" si="0"/>
-        <v>barley</v>
-      </c>
-      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="1"/>
-        <v>1.876512E-2</v>
-      </c>
-      <c r="D34">
+        <v>2.1891693725777732</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="2"/>
-        <v>2.2894338005832098</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="3"/>
-        <v>5.0119583567810917</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="4"/>
-        <v>1.7553844579730908</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="str">
-        <f t="shared" si="0"/>
-        <v>sorghum for grain</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="1"/>
-        <v>1.7518357499999998E-2</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>2.4523703206764678</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="3"/>
-        <v>5.3686539962436548</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="4"/>
-        <v>1.8803132656700268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="str">
-        <f t="shared" si="0"/>
-        <v>sorghum for silage</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="1"/>
-        <v>7.3775999999999998E-3</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>5.8232351984385167</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="3"/>
-        <v>12.748048145738451</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="4"/>
-        <v>4.4648666232921279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="str">
-        <f t="shared" si="0"/>
-        <v>potatoes</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="1"/>
-        <v>3.5662275000000001E-3</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>12.046763701979192</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="3"/>
-        <v>26.372406135054476</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="4"/>
-        <v>9.2366513353396567</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="str">
-        <f t="shared" si="0"/>
-        <v>rye</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="1"/>
-        <v>1.908924E-2</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="2"/>
-        <v>2.2505610490517172</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="3"/>
-        <v>4.9268593197005224</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="4"/>
-        <v>1.7255794363735804</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="str">
-        <f t="shared" si="0"/>
-        <v>alfalfa hay</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="1"/>
-        <v>2.5198615000000001E-2</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
-        <v>1.7049151312482849</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="3"/>
-        <v>3.7323479881731592</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="4"/>
-        <v>1.3072147020778722</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="str">
-        <f t="shared" si="0"/>
-        <v>other hay</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="1"/>
-        <v>1.0978108889999999E-2</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>3.9133789280532452</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="3"/>
-        <v>8.5670492925854003</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="4"/>
-        <v>3.0005167857284758</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="str">
-        <f t="shared" si="0"/>
-        <v>soybeans</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="1"/>
-        <v>5.9190762500000008E-2</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="2"/>
-        <v>0.72581426873830179</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="3"/>
-        <v>1.5889303673018231</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="4"/>
-        <v>0.55650575543776781</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="str">
-        <f t="shared" si="0"/>
-        <v>cropland pasture</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="2"/>
-        <v>1.7184599999999999</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="3"/>
-        <v>3.7619999999999996</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="4"/>
-        <v>1.3176000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="str">
-        <f t="shared" si="0"/>
-        <v>noncropland pasture</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="2"/>
-        <v>2.148075</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="3"/>
-        <v>4.7024999999999997</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="4"/>
-        <v>1.6470000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="str">
-        <f t="shared" si="0"/>
-        <v>rice</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="1"/>
-        <v>1.25117475E-2</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="2"/>
-        <v>3.4336930153042169</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="3"/>
-        <v>7.5169355839382144</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="4"/>
-        <v>2.6327257643266861</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="str">
-        <f t="shared" si="0"/>
-        <v>peanuts</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="1"/>
-        <v>4.0311843E-2</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="2"/>
-        <v>1.0657289968111852</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="3"/>
-        <v>2.3330612792870817</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="4"/>
-        <v>0.8171295963818872</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="str">
-        <f t="shared" si="0"/>
-        <v>CGF</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="1"/>
-        <v>3.2940000000000004E-2</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="2"/>
-        <v>1.3042349726775955</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="3"/>
-        <v>2.8551912568306004</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="str">
-        <f t="shared" si="0"/>
-        <v>CGM</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="1"/>
-        <v>9.4049999999999995E-2</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="2"/>
-        <v>0.45679425837320575</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="4"/>
-        <v>0.35023923444976085</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="str">
-        <f t="shared" si="0"/>
-        <v>DGS</v>
-      </c>
-      <c r="B48">
-        <f>C21*B21</f>
-        <v>4.29615E-2</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="3"/>
-        <v>2.1891693725777732</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="4"/>
         <v>0.76673300513250242</v>
       </c>
     </row>
@@ -4443,9 +4508,9 @@
       <selection sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>29</v>
       </c>
@@ -4459,7 +4524,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4477,7 +4542,7 @@
         <v>2.7483899999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4495,7 +4560,7 @@
         <v>5.2539999999999998E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4513,7 +4578,7 @@
         <v>3.5261851500000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4531,7 +4596,7 @@
         <v>3.299967E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4549,7 +4614,7 @@
         <v>3.722815E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4567,7 +4632,7 @@
         <v>3.1477599999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4585,7 +4650,7 @@
         <v>1.2179999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4603,7 +4668,7 @@
         <v>5.4796499999999998E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4621,7 +4686,7 @@
         <v>3.2754599999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4639,7 +4704,7 @@
         <v>2.3581349999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4657,7 +4722,7 @@
         <v>5.720022E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4675,7 +4740,7 @@
         <v>5.9688925000000006E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4693,7 +4758,7 @@
         <v>5.5115565546219394E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4711,7 +4776,7 @@
         <v>4.4092452436975517E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4729,7 +4794,7 @@
         <v>2.9345249999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4747,7 +4812,7 @@
         <v>3.2888449999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4765,7 +4830,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4783,7 +4848,7 @@
         <v>5.7959999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4815,7 +4880,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -4835,7 +4900,7 @@
     <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>29</v>
       </c>
@@ -4891,97 +4956,97 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4995,13 +5060,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644969D2-BCB8-7548-8157-70DEE2D23292}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="3">
         <v>0.86699999999999999</v>
       </c>
@@ -5057,7 +5122,7 @@
         <v>1.4603999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>0.28399999999999997</v>
       </c>
@@ -5113,7 +5178,7 @@
         <v>0.32768999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>0.88541999999999998</v>
       </c>
@@ -5169,7 +5234,7 @@
         <v>5.9404000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>0.89429999999999998</v>
       </c>
@@ -5225,7 +5290,7 @@
         <v>12.705</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>0.88849999999999996</v>
       </c>
@@ -5281,7 +5346,7 @@
         <v>4.3407999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>0.89424999999999999</v>
       </c>
@@ -5337,7 +5402,7 @@
         <v>4.5965999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>0.57999999999999996</v>
       </c>
@@ -5393,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>0.22275</v>
       </c>
@@ -5449,7 +5514,7 @@
         <v>0.25731999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>0.88049999999999995</v>
       </c>
@@ -5505,7 +5570,7 @@
         <v>29.815999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>0.90349999999999997</v>
       </c>
@@ -5561,7 +5626,7 @@
         <v>1.4938</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>0.86667000000000005</v>
       </c>
@@ -5617,7 +5682,7 @@
         <v>2.1964000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>0.90575000000000006</v>
       </c>
@@ -5673,7 +5738,7 @@
         <v>4.0646000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -5729,7 +5794,7 @@
         <v>8.9337999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -5785,7 +5850,7 @@
         <v>17.864999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>0.88924999999999998</v>
       </c>
@@ -5841,7 +5906,7 @@
         <v>1.3791</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>0.93967000000000001</v>
       </c>
@@ -5897,7 +5962,7 @@
         <v>0.28021000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>0.9</v>
       </c>
@@ -5953,7 +6018,7 @@
         <v>1.4603999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>0.9</v>
       </c>
@@ -6009,7 +6074,7 @@
         <v>1.4603999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>0.9</v>
       </c>
@@ -6071,8 +6136,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="04f0adbf5da449b72a87907c36bfe402">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5e4044cd58a51a52832fd40a04c970f" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bcac96711073587df0b68b080c708180">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98209c71c39a5a5ad103d397a60c957b" ns2:_="" ns3:_="">
     <xsd:import namespace="d795cf93-200f-4322-ae4e-3af3c2bc7b07"/>
     <xsd:import namespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59"/>
     <xsd:element name="properties">
@@ -6095,6 +6160,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6165,6 +6231,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" elementFormDefault="qualified">
@@ -6308,15 +6379,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="d795cf93-200f-4322-ae4e-3af3c2bc7b07">
@@ -6327,14 +6389,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8B3435B-7CC6-4E45-8B00-E04869FBC157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62E901C5-1FF8-483F-8BA4-C59C127986E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d795cf93-200f-4322-ae4e-3af3c2bc7b07"/>
+    <ds:schemaRef ds:uri="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99EE9F6E-9B67-4397-B41A-5C4C0B44707F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDACA9F8-800C-4A3A-A834-3E57DEEE7946}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d795cf93-200f-4322-ae4e-3af3c2bc7b07"/>
+    <ds:schemaRef ds:uri="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDACA9F8-800C-4A3A-A834-3E57DEEE7946}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99EE9F6E-9B67-4397-B41A-5C4C0B44707F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>